--- a/medicine/Nettoyage et hygiène/Monobrosse/Monobrosse.xlsx
+++ b/medicine/Nettoyage et hygiène/Monobrosse/Monobrosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une monobrosse est une machine électrique conçue pour l'entretien mécanisé des sols. La monobrosse s'utilise avec tout type de produit d'entretien. Certains modèles disposent d'un réservoir de solution.
 La monobrosse est composée d'un timon et d'un moteur d'entraînement sur lesquels des brosses ou des disques répondant à un code couleur s'adaptent selon le type de sol et de nettoyage souhaité :  
